--- a/aspnet-core/src/Event_Planning_System.Web.Host/Book 4.xlsx
+++ b/aspnet-core/src/Event_Planning_System.Web.Host/Book 4.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50834C62-FD80-4F26-86CA-5089D6D7B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ac75465df278a82/Desktop/sprint 3/edit event/Event-Planning-System/aspnet-core/src/Event_Planning_System.Web.Host/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{50834C62-FD80-4F26-86CA-5089D6D7B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A6202D-1657-464E-8BC7-BE0E1723AB23}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>nada</t>
   </si>
@@ -76,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,18 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -498,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -512,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -526,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -540,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -551,6 +556,90 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1234567890</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1234567890</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1234567890</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1234567890</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1234567890</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1234567890</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -562,6 +651,12 @@
     <hyperlink ref="D4" r:id="rId4" xr:uid="{85A5D067-F697-4736-BFF9-A90ABDEB3FED}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{D704E9E7-93DE-4365-876B-F44BED100E5A}"/>
     <hyperlink ref="D6" r:id="rId6" xr:uid="{72B964B0-36FD-4FD0-B09E-4084C55DC0C9}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{353B079C-1A39-458E-A6D0-EA81F0071454}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{BF3BEC59-68D9-4B2D-82DB-532DFDF13499}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{CE3F6DB1-570D-4EBE-BF62-EA9C16E989CD}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{DCD843AF-D09A-4258-993C-E58096754315}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{EFB2FA63-5835-4955-81C8-66709D728AE2}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{AA9B1E3C-2CDF-4473-85FA-213FABE27936}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
